--- a/result.xlsx
+++ b/result.xlsx
@@ -9,53 +9,90 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16875" windowHeight="8850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>memcpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>lib/size</t>
   </si>
   <si>
-    <t>rapidjson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> write</t>
   </si>
   <si>
-    <t>libjson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>___memcpy_data-common</t>
   </si>
   <si>
-    <t>parsing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>rapidjson_data-common</t>
   </si>
   <si>
-    <t>writing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>__libjson_data-common</t>
   </si>
   <si>
-    <t>jsoncpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>__jsoncpp_data-common</t>
   </si>
   <si>
-    <t>ratio/parse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>___memcpy_data-_5k</t>
   </si>
   <si>
-    <t>ratio/write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>rapidjson_data-_5k</t>
+  </si>
+  <si>
+    <t>__libjson_data-_5k</t>
+  </si>
+  <si>
+    <t>__jsoncpp_data-_5k</t>
+  </si>
+  <si>
+    <t>___memcpy_data-08k</t>
+  </si>
+  <si>
+    <t>rapidjson_data-08k</t>
+  </si>
+  <si>
+    <t>__libjson_data-08k</t>
+  </si>
+  <si>
+    <t>__jsoncpp_data-08k</t>
+  </si>
+  <si>
+    <t>___memcpy_data-32k</t>
+  </si>
+  <si>
+    <t>rapidjson_data-32k</t>
+  </si>
+  <si>
+    <t>__libjson_data-32k</t>
+  </si>
+  <si>
+    <t>__jsoncpp_data-32k</t>
+  </si>
+  <si>
+    <t>___memcpy_data-99k</t>
+  </si>
+  <si>
+    <t>rapidjson_data-99k</t>
+  </si>
+  <si>
+    <t>__libjson_data-99k</t>
+  </si>
+  <si>
+    <t>__jsoncpp_data-99k</t>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> parse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -63,12 +100,156 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -82,15 +263,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -98,9 +452,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -112,7 +696,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -163,11 +788,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>json small</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> &lt; 1k bytes : 100k loop</a:t>
+              <a:t>processing time in msec</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -214,11 +835,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$15</c:f>
+              <c:f>a!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>parsing</c:v>
+                  <c:v> parse</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -235,41 +856,137 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$16:$B$19</c:f>
+              <c:f>a!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>memcpy</c:v>
+                  <c:v>___memcpy_data-common</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>rapidjson</c:v>
+                  <c:v>rapidjson_data-common</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>libjson</c:v>
+                  <c:v>__libjson_data-common</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>jsoncpp</c:v>
+                  <c:v>__jsoncpp_data-common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>___memcpy_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rapidjson_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>__libjson_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>__jsoncpp_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>___memcpy_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rapidjson_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>__libjson_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>__jsoncpp_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>___memcpy_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>rapidjson_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>__libjson_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>__jsoncpp_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>___memcpy_data-99k</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>rapidjson_data-99k</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>__libjson_data-99k</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>__jsoncpp_data-99k</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$19</c:f>
+              <c:f>a!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3911</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2913</c:v>
+                  <c:v>4980</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25601</c:v>
+                  <c:v>5396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4181</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3949</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4521</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -280,11 +997,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$15</c:f>
+              <c:f>a!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>writing</c:v>
+                  <c:v> write</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -301,41 +1018,137 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$16:$B$19</c:f>
+              <c:f>a!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>memcpy</c:v>
+                  <c:v>___memcpy_data-common</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>rapidjson</c:v>
+                  <c:v>rapidjson_data-common</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>libjson</c:v>
+                  <c:v>__libjson_data-common</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>jsoncpp</c:v>
+                  <c:v>__jsoncpp_data-common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>___memcpy_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rapidjson_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>__libjson_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>__jsoncpp_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>___memcpy_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rapidjson_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>__libjson_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>__jsoncpp_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>___memcpy_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>rapidjson_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>__libjson_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>__jsoncpp_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>___memcpy_data-99k</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>rapidjson_data-99k</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>__libjson_data-99k</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>__jsoncpp_data-99k</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$19</c:f>
+              <c:f>a!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2166</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>1532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19247</c:v>
+                  <c:v>2983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1328</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,11 +1164,250 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352912144"/>
-        <c:axId val="352913320"/>
+        <c:axId val="371416992"/>
+        <c:axId val="371416600"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>a!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>a!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>___memcpy_data-common</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rapidjson_data-common</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>__libjson_data-common</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>__jsoncpp_data-common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>___memcpy_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rapidjson_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>__libjson_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>__jsoncpp_data-_5k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>___memcpy_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rapidjson_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>__libjson_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>__jsoncpp_data-08k</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>___memcpy_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>rapidjson_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>__libjson_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>__jsoncpp_data-32k</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>___memcpy_data-99k</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>rapidjson_data-99k</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>__libjson_data-99k</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>__jsoncpp_data-99k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>a!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.7342047930283223E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5468409586056646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5637254901960782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4629460201280884E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4007319304666055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.074565416285453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9488999290276793E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5251951738821861</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2618878637331443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2811412665274878E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4954766875434933</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.140570633263744</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1387591727818551E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9019346230820546</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3488992661774519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="371417384"/>
+        <c:axId val="371416208"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="352912144"/>
+        <c:axId val="371416992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +1450,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352913320"/>
+        <c:crossAx val="371416600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -406,7 +1458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352913320"/>
+        <c:axId val="371416600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +1478,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -457,386 +1509,18 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352912144"/>
+        <c:crossAx val="371416992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>json big =</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> 600k bytes : 3k loops</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>parsing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$22:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>memcpy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>rapidjson</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libjson</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>jsoncpp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$22:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>578</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2405</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12296</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>writing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$22:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>memcpy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>rapidjson</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>libjson</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>jsoncpp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$22:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1644</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10832</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="198973760"/>
-        <c:axId val="198967880"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="198973760"/>
+      <c:valAx>
+        <c:axId val="371416208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="198967880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="198967880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -867,10 +1551,27 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198973760"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="371417384"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="371417384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="371416208"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -988,46 +1689,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1531,523 +2192,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>671512</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2061,36 +2219,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>671512</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2362,213 +2490,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B14:F25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E14" s="1">
-        <v>2913</v>
-      </c>
-      <c r="F14" s="1">
-        <v>170</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(B2:C2)/$E$3</f>
+        <v>7.7342047930283223E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B3">
+        <v>834</v>
+      </c>
+      <c r="C3">
+        <v>1002</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(B3:C3)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3:C3)</f>
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="B4">
+        <v>4980</v>
+      </c>
+      <c r="C4">
+        <v>1532</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(B4:C4)/$E$3</f>
+        <v>3.5468409586056646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5396</v>
+      </c>
+      <c r="C5">
+        <v>2983</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM(B5:C5)/$E$3</f>
+        <v>4.5637254901960782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="B6">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>117</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM(B6:C6)/$E$7</f>
+        <v>8.4629460201280884E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>850</v>
+      </c>
+      <c r="C7">
+        <v>1336</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D9" si="0">SUM(B7:C7)/$E$7</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>SUM(B7:C7)</f>
+        <v>2186</v>
+      </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>0</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>4170</v>
+      </c>
+      <c r="C8">
+        <v>1078</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4007319304666055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4181</v>
+      </c>
+      <c r="C9">
+        <v>2540</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.074565416285453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(B10:C10)/$E$11</f>
+        <v>7.9488999290276793E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>611</v>
+      </c>
+      <c r="C11">
+        <v>798</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:D13" si="1">SUM(B11:C11)/$E$11</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>SUM(B11:C11)</f>
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3981</v>
+      </c>
+      <c r="C12">
+        <v>986</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5251951738821861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3949</v>
+      </c>
+      <c r="C13">
+        <v>2056</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2618878637331443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM(B14:C14)/$E$15</f>
+        <v>8.2811412665274878E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>599</v>
+      </c>
+      <c r="C15">
+        <v>838</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:D17" si="2">SUM(B15:C15)/$E$15</f>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f>SUM(B15:C15)</f>
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4018</v>
       </c>
       <c r="C16">
-        <v>77</v>
-      </c>
-      <c r="D16">
-        <v>66</v>
-      </c>
-      <c r="E16" s="1">
-        <f>C16/$E$14</f>
-        <v>2.6433230346721594E-2</v>
-      </c>
-      <c r="F16" s="1">
-        <f>D16/$F$14</f>
-        <v>0.38823529411764707</v>
+        <v>1005</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4954766875434933</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>3871</v>
+      </c>
+      <c r="C17">
+        <v>2079</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>4.140570633263744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM(B18:C18)/$E$19</f>
+        <v>8.1387591727818551E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>633</v>
+      </c>
+      <c r="C19">
+        <v>866</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:D21" si="3">SUM(B19:C19)/$E$19</f>
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>3911</v>
-      </c>
-      <c r="D17">
-        <v>2166</v>
-      </c>
-      <c r="E17" s="1">
-        <f>C17/$E$14</f>
-        <v>1.3426021283899761</v>
-      </c>
-      <c r="F17" s="1">
-        <f>D17/$F$14</f>
-        <v>12.741176470588234</v>
+      <c r="E19">
+        <f>SUM(B19:C19)</f>
+        <v>1499</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2913</v>
-      </c>
-      <c r="D18">
-        <v>170</v>
-      </c>
-      <c r="E18" s="1">
-        <f>C18/$E$14</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <f>D18/$F$14</f>
-        <v>1</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>4521</v>
+      </c>
+      <c r="C20">
+        <v>1328</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9019346230820546</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>25601</v>
-      </c>
-      <c r="D19">
-        <v>19247</v>
-      </c>
-      <c r="E19" s="1">
-        <f>C19/$E$14</f>
-        <v>8.788534157226227</v>
-      </c>
-      <c r="F19" s="1">
-        <f>D19/$F$14</f>
-        <v>113.21764705882353</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="1">
-        <v>2405</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>578</v>
-      </c>
-      <c r="D22">
-        <v>558</v>
-      </c>
-      <c r="E22" s="1">
-        <f>C22/$E$20</f>
-        <v>0.24033264033264035</v>
-      </c>
-      <c r="F22" s="1">
-        <f>D22/$F$20</f>
-        <v>0.33941605839416056</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>2641</v>
-      </c>
-      <c r="D23">
-        <v>2080</v>
-      </c>
-      <c r="E23" s="1">
-        <f>C23/$E$20</f>
-        <v>1.0981288981288981</v>
-      </c>
-      <c r="F23" s="1">
-        <f>D23/$F$20</f>
-        <v>1.2652068126520681</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2405</v>
-      </c>
-      <c r="D24">
-        <v>1644</v>
-      </c>
-      <c r="E24" s="1">
-        <f>C24/$E$20</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <f>D24/$F$20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>12296</v>
-      </c>
-      <c r="D25">
-        <v>10832</v>
-      </c>
-      <c r="E25" s="1">
-        <f>C25/$E$20</f>
-        <v>5.1126819126819125</v>
-      </c>
-      <c r="F25" s="1">
-        <f>D25/$F$20</f>
-        <v>6.5888077858880783</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>4249</v>
+      </c>
+      <c r="C21">
+        <v>2270</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3488992661774519</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
